--- a/data/trans_orig/P10_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P10_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8633DD81-C58C-4D5D-B101-A5996E2B7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB7A271D-DD99-43C1-BAFA-138B8CA5A3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F983A3CD-4931-4079-BD39-4C93B97D149C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DB6BD4A-6CFB-4C0F-A80C-CBCC8364C79B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>11,16%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,84%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,778 +140,784 @@
     <t>3,58%</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
     <t>90,94%</t>
   </si>
   <si>
-    <t>90,18%</t>
+    <t>90,19%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5172376-AF31-4F31-9F06-164C2ABB0C9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DD55A7-C6D2-4C6D-B171-AFDA6D95E52E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1939,7 +1945,7 @@
         <v>504</v>
       </c>
       <c r="N13" s="7">
-        <v>516513</v>
+        <v>516514</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2041,7 +2047,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2074,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D2BAC1-398A-46B8-A90C-02802B74B714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027A42A8-DB33-46E8-BE7D-3E78EDCE69EC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2726,7 +2732,7 @@
         <v>2811</v>
       </c>
       <c r="I14" s="7">
-        <v>3033540</v>
+        <v>3033539</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>155</v>
@@ -2777,7 +2783,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3553176</v>
+        <v>3553175</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330C66BA-F727-4527-8658-498BE3A16AB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77D2684-374C-4FCF-958D-F60F875C747B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3122,10 +3128,10 @@
         <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -3134,13 +3140,13 @@
         <v>292295</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,10 +3164,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1750</v>
@@ -3170,13 +3176,13 @@
         <v>1816180</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>3593</v>
@@ -3185,13 +3191,13 @@
         <v>3772390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3265,13 @@
         <v>16271</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -3274,13 +3280,13 @@
         <v>33641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3289,13 +3295,13 @@
         <v>49913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3316,13 @@
         <v>530615</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -3325,13 +3331,13 @@
         <v>515499</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>980</v>
@@ -3340,13 +3346,13 @@
         <v>1046113</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3420,13 @@
         <v>205975</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>386</v>
@@ -3429,13 +3435,13 @@
         <v>432259</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>581</v>
@@ -3444,13 +3450,13 @@
         <v>638234</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3471,13 @@
         <v>3171643</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>2940</v>
@@ -3480,13 +3486,13 @@
         <v>3099841</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>5960</v>
@@ -3576,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3580AE3-2A01-43F1-A8C0-B99AA26C68BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB46F5C-C321-4AC3-BADE-92F4DBE9FFA9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3870,13 +3876,13 @@
         <v>188390</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -3885,13 +3891,13 @@
         <v>304950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3912,13 @@
         <v>2044864</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2655</v>
@@ -3921,13 +3927,13 @@
         <v>2060098</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7">
         <v>4534</v>
@@ -3936,13 +3942,13 @@
         <v>4104962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4016,13 @@
         <v>27629</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4025,13 +4031,13 @@
         <v>52427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -4040,13 +4046,13 @@
         <v>80055</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4067,13 @@
         <v>645410</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4076,7 +4082,7 @@
         <v>661459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>272</v>
@@ -4168,10 +4174,10 @@
         <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>655</v>
@@ -4180,13 +4186,13 @@
         <v>440665</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>878</v>
@@ -4195,13 +4201,13 @@
         <v>649988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,28 +4222,28 @@
         <v>3166085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>4692</v>
       </c>
       <c r="I14" s="7">
-        <v>3356084</v>
+        <v>3356083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>7831</v>
@@ -4246,13 +4252,13 @@
         <v>6522169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,7 +4285,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3796749</v>
+        <v>3796748</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P10_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P10_1_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB7A271D-DD99-43C1-BAFA-138B8CA5A3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{162B922C-BE34-4C4D-8475-D09B7DA2D1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DB6BD4A-6CFB-4C0F-A80C-CBCC8364C79B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4755C71A-C961-4B81-92F7-58ADE004C2EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>9,37%</t>
   </si>
   <si>
-    <t>13,38%</t>
+    <t>13,27%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>88,84%</t>
   </si>
   <si>
-    <t>86,62%</t>
+    <t>86,73%</t>
   </si>
   <si>
     <t>90,63%</t>
@@ -116,19 +116,19 @@
     <t>86,32%</t>
   </si>
   <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>3,58%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>6,98%</t>
@@ -161,16 +161,16 @@
     <t>4,48%</t>
   </si>
   <si>
-    <t>6,17%</t>
+    <t>6,03%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>93,02%</t>
@@ -185,7 +185,7 @@
     <t>94,77%</t>
   </si>
   <si>
-    <t>93,83%</t>
+    <t>93,97%</t>
   </si>
   <si>
     <t>95,52%</t>
@@ -197,622 +197,634 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>92,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
   </si>
   <si>
     <t>92,23%</t>
@@ -1329,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DD55A7-C6D2-4C6D-B171-AFDA6D95E52E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062AAD1A-3CDB-4676-86A1-4794C02F4935}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1656,7 +1668,7 @@
         <v>1589</v>
       </c>
       <c r="D8" s="7">
-        <v>1632754</v>
+        <v>1632755</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1707,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1915,7 +1927,7 @@
         <v>196</v>
       </c>
       <c r="D13" s="7">
-        <v>198239</v>
+        <v>198238</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -2017,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2080,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027A42A8-DB33-46E8-BE7D-3E78EDCE69EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE4F8-8FB9-4FD5-80B1-C28A0937B324}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2386,7 +2398,7 @@
         <v>245</v>
       </c>
       <c r="N7" s="7">
-        <v>264286</v>
+        <v>264287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2407,7 +2419,7 @@
         <v>1768</v>
       </c>
       <c r="D8" s="7">
-        <v>1871574</v>
+        <v>1871575</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2458,7 +2470,7 @@
         <v>1854</v>
       </c>
       <c r="D9" s="7">
-        <v>1961966</v>
+        <v>1961967</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2488,7 +2500,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3719769</v>
+        <v>3719770</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2547,10 +2559,10 @@
         <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2577,13 @@
         <v>458705</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>391</v>
@@ -2580,13 +2592,13 @@
         <v>434979</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
@@ -2595,13 +2607,13 @@
         <v>893684</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2681,13 @@
         <v>241936</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>482</v>
@@ -2684,13 +2696,13 @@
         <v>519636</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>701</v>
@@ -2699,13 +2711,13 @@
         <v>761571</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,28 +2732,28 @@
         <v>3175855</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2811</v>
       </c>
       <c r="I14" s="7">
-        <v>3033539</v>
+        <v>3033540</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5792</v>
@@ -2750,13 +2762,13 @@
         <v>6209395</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2795,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3553175</v>
+        <v>3553176</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2831,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77D2684-374C-4FCF-958D-F60F875C747B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81357A04-5D74-477B-967E-BB02AB841CE4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2967,13 @@
         <v>69529</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>196</v>
@@ -2970,13 +2982,13 @@
         <v>226498</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>267</v>
@@ -2985,13 +2997,13 @@
         <v>296026</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3018,13 @@
         <v>684818</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>696</v>
@@ -3021,13 +3033,13 @@
         <v>768162</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1387</v>
@@ -3036,13 +3048,13 @@
         <v>1452981</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,10 +3125,10 @@
         <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -3125,13 +3137,13 @@
         <v>172120</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -3140,13 +3152,13 @@
         <v>292295</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,7 +3194,7 @@
         <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>3593</v>
@@ -3191,13 +3203,13 @@
         <v>3772390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3277,13 @@
         <v>16271</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -3280,13 +3292,13 @@
         <v>33641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3295,13 +3307,13 @@
         <v>49913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3328,13 @@
         <v>530615</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -3331,13 +3343,13 @@
         <v>515499</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>980</v>
@@ -3346,13 +3358,13 @@
         <v>1046113</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3432,13 @@
         <v>205975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>386</v>
@@ -3435,13 +3447,13 @@
         <v>432259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>581</v>
@@ -3450,13 +3462,13 @@
         <v>638234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3483,13 @@
         <v>3171643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2940</v>
@@ -3486,13 +3498,13 @@
         <v>3099841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>5960</v>
@@ -3501,13 +3513,13 @@
         <v>6271484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB46F5C-C321-4AC3-BADE-92F4DBE9FFA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C42128E-F5C9-4244-84CB-F0462CE694B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3718,13 @@
         <v>65134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>320</v>
@@ -3721,13 +3733,13 @@
         <v>199848</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>403</v>
@@ -3736,13 +3748,13 @@
         <v>264982</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3769,13 @@
         <v>475812</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>1104</v>
@@ -3772,13 +3784,13 @@
         <v>634526</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1711</v>
@@ -3787,13 +3799,13 @@
         <v>1110338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3873,13 @@
         <v>116560</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>264</v>
@@ -3876,13 +3888,13 @@
         <v>188390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -3891,13 +3903,13 @@
         <v>304950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3924,13 @@
         <v>2044864</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2655</v>
@@ -3927,13 +3939,13 @@
         <v>2060098</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4534</v>
@@ -3942,13 +3954,13 @@
         <v>4104962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4028,13 @@
         <v>27629</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4031,13 +4043,13 @@
         <v>52427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -4046,13 +4058,13 @@
         <v>80055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4079,13 @@
         <v>645410</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4082,13 +4094,13 @@
         <v>661459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1586</v>
@@ -4097,13 +4109,13 @@
         <v>1306871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4183,13 @@
         <v>209323</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>655</v>
@@ -4186,13 +4198,13 @@
         <v>440665</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>878</v>
@@ -4201,13 +4213,13 @@
         <v>649988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4234,13 @@
         <v>3166085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>4692</v>
@@ -4237,13 +4249,13 @@
         <v>3356083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>7831</v>
@@ -4252,13 +4264,13 @@
         <v>6522169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
